--- a/xlsx/country_comparison/gcs_support_by_variant_warm_glow_pol.xlsx
+++ b/xlsx/country_comparison/gcs_support_by_variant_warm_glow_pol.xlsx
@@ -419,13 +419,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0349204718605695</v>
+        <v>0.0196328250162523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00992667590086522</v>
+        <v>-0.00489018613364802</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0599142678202739</v>
+        <v>0.0441558361661526</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -436,13 +436,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0705106251655603</v>
+        <v>-0.0954361815371149</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.184562917296676</v>
+        <v>-0.207630324955389</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0435416669655549</v>
+        <v>0.0167579618811588</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0633116033181847</v>
+        <v>0.0633116033181845</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0101923536582474</v>
+        <v>-0.0101923536582475</v>
       </c>
       <c r="D4" t="n">
         <v>0.136815560294617</v>
@@ -470,10 +470,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0590603263369253</v>
+        <v>0.0590603263369254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00502472846826464</v>
+        <v>0.00502472846826459</v>
       </c>
       <c r="D5" t="n">
         <v>0.113095924205586</v>
@@ -487,10 +487,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0848063436589901</v>
+        <v>0.0848063436589899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0174168115058651</v>
+        <v>0.017416811505865</v>
       </c>
       <c r="D6" t="n">
         <v>0.152195875812115</v>
@@ -521,13 +521,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0648485380233901</v>
+        <v>0.0647984166229901</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.037944249804839</v>
+        <v>-0.0379941011865182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.167641325851619</v>
+        <v>0.167590934432498</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,13 +538,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.000174717957973272</v>
+        <v>0.0000637950942883524</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.104266808712674</v>
+        <v>-0.104372661464351</v>
       </c>
       <c r="D9" t="n">
-        <v>0.104616244628621</v>
+        <v>0.104500251652928</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -555,13 +555,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.012829088125998</v>
+        <v>-0.0124959339317964</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0915123723626641</v>
+        <v>-0.0911784478279919</v>
       </c>
       <c r="D10" t="n">
-        <v>0.065854196110668</v>
+        <v>0.066186579964399</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -572,13 +572,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0620739796224019</v>
+        <v>0.061463915231191</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00174960257513129</v>
+        <v>0.00106165327145921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122398356669673</v>
+        <v>0.121866177190923</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,13 +589,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0423414444627366</v>
+        <v>-0.042957588305463</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.109053558083272</v>
+        <v>-0.109710627364996</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0243706691577985</v>
+        <v>0.0237954507540705</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -606,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0314392355760915</v>
+        <v>0.0306262514285841</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0386954365032207</v>
+        <v>-0.0395570292220072</v>
       </c>
       <c r="D13" t="n">
-        <v>0.101573907655404</v>
+        <v>0.100809532079175</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/gcs_support_by_variant_warm_glow_pol.xlsx
+++ b/xlsx/country_comparison/gcs_support_by_variant_warm_glow_pol.xlsx
@@ -422,10 +422,10 @@
         <v>0.0196328250162523</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00489018613364802</v>
+        <v>-0.00489018613364792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0441558361661526</v>
+        <v>0.0441558361661525</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -436,13 +436,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0954361815371149</v>
+        <v>-0.095436181537115</v>
       </c>
       <c r="C3" t="n">
         <v>-0.207630324955389</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0167579618811588</v>
+        <v>0.0167579618811586</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -453,7 +453,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0633116033181845</v>
+        <v>0.0633116033181846</v>
       </c>
       <c r="C4" t="n">
         <v>-0.0101923536582475</v>
@@ -470,10 +470,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0590603263369254</v>
+        <v>0.0590603263369251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00502472846826459</v>
+        <v>0.00502472846826452</v>
       </c>
       <c r="D5" t="n">
         <v>0.113095924205586</v>
@@ -490,7 +490,7 @@
         <v>0.0848063436589899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.017416811505865</v>
+        <v>0.0174168115058649</v>
       </c>
       <c r="D6" t="n">
         <v>0.152195875812115</v>
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0383034173940706</v>
+        <v>0.0383034173940704</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0408955420726767</v>
+        <v>-0.0408955420726769</v>
       </c>
       <c r="D7" t="n">
         <v>0.117502376860818</v>
@@ -521,13 +521,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0647984166229901</v>
+        <v>0.0647984166229903</v>
       </c>
       <c r="C8" t="n">
         <v>-0.0379941011865182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.167590934432498</v>
+        <v>0.167590934432499</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0000637950942883524</v>
+        <v>0.0000637950942883523</v>
       </c>
       <c r="C9" t="n">
         <v>-0.104372661464351</v>
@@ -555,13 +555,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0124959339317964</v>
+        <v>-0.0124959339317962</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0911784478279919</v>
+        <v>-0.0911784478279915</v>
       </c>
       <c r="D10" t="n">
-        <v>0.066186579964399</v>
+        <v>0.0661865799643992</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -572,10 +572,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.061463915231191</v>
+        <v>0.0614639152311909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00106165327145921</v>
+        <v>0.00106165327145927</v>
       </c>
       <c r="D11" t="n">
         <v>0.121866177190923</v>
@@ -595,7 +595,7 @@
         <v>-0.109710627364996</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0237954507540705</v>
+        <v>0.0237954507540704</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -609,7 +609,7 @@
         <v>0.0306262514285841</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0395570292220072</v>
+        <v>-0.0395570292220071</v>
       </c>
       <c r="D13" t="n">
         <v>0.100809532079175</v>
